--- a/Kyrgyzstan/kyrgyzstan_master.xlsx
+++ b/Kyrgyzstan/kyrgyzstan_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianbaehr/GitHub/SCA Geocoding/Kyrgyzstan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4FCA20-C7E7-FB4E-B588-2CAAABECA766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4715847-D1A3-D447-9DFE-2FE39A1DE854}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="940" windowWidth="30840" windowHeight="18960" xr2:uid="{1801B392-54F9-6F4E-927A-EDF095A65AA5}"/>
+    <workbookView xWindow="32560" yWindow="3500" windowWidth="28000" windowHeight="16160" xr2:uid="{1801B392-54F9-6F4E-927A-EDF095A65AA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="529">
   <si>
     <t>project_id</t>
   </si>
@@ -1803,6 +1803,15 @@
       </rPr>
       <t>planned fibre optic lines map</t>
     </r>
+  </si>
+  <si>
+    <t>used the WB doc to find the route. Cant tell which districts so code province</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/cbaehr/a25e0b68bd41f6b4c6cba47574b2f4af</t>
+  </si>
+  <si>
+    <t>good code up</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +1884,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1886,12 +1895,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
@@ -1922,6 +1925,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1966,22 +1981,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1989,28 +1996,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2328,18 +2346,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1612A2-90B3-8447-948A-07670906B369}">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="14" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,405 +2401,481 @@
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="35">
+    <row r="4" spans="1:14" ht="14" customHeight="1">
+      <c r="A4" s="29">
         <v>46364</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="33" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="35">
+    <row r="5" spans="1:14" ht="14" customHeight="1">
+      <c r="A5" s="29">
         <v>71092</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="33" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="35">
+    <row r="6" spans="1:14" ht="14" customHeight="1">
+      <c r="A6" s="29">
         <v>54379</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="33" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="35">
+    <row r="7" spans="1:14" ht="14" customHeight="1">
+      <c r="A7" s="29">
         <v>70938</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="35" t="s">
+      <c r="F7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39" t="s">
+      <c r="M7" s="33"/>
+      <c r="N7" s="33" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
+    <row r="8" spans="1:14" ht="14" customHeight="1">
+      <c r="A8" s="29">
         <v>70889</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
+      <c r="L8" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14" customHeight="1">
+      <c r="A9" s="29">
         <v>70886</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="F9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="34"/>
+      <c r="J9" s="35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14" customHeight="1">
+      <c r="A10" s="29">
         <v>52924</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
+      <c r="L10" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14" customHeight="1">
+      <c r="A11" s="29">
         <v>53585</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="32" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
+      <c r="L11" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14" customHeight="1">
+      <c r="A12" s="29">
+        <v>53585</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
+      <c r="L12" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14" customHeight="1">
+      <c r="A13" s="29">
         <v>40335</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="32" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1">
+      <c r="L13" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14" customHeight="1">
+      <c r="A14" s="29">
         <v>40185</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="32" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="L14" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14" customHeight="1">
       <c r="A15" s="1">
         <v>40195</v>
       </c>
@@ -2814,7 +2908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="14" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2829,11 +2923,11 @@
       <c r="J16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="14" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2848,9 +2942,9 @@
       <c r="J17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" ht="14" customHeight="1">
       <c r="A18" s="1">
         <v>40300</v>
       </c>
@@ -2885,7 +2979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="14" customHeight="1">
       <c r="A19" s="1">
         <v>40315</v>
       </c>
@@ -2916,11 +3010,11 @@
       <c r="J19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="14" customHeight="1">
       <c r="A20" s="1">
         <v>40337</v>
       </c>
@@ -2948,14 +3042,14 @@
       <c r="I20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="6" t="s">
         <v>114</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="14" customHeight="1">
       <c r="A21" s="1">
         <v>54375</v>
       </c>
@@ -2988,7 +3082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="14" customHeight="1">
       <c r="A22" s="1">
         <v>40295</v>
       </c>
@@ -3021,7 +3115,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="14" customHeight="1">
       <c r="A23" s="1">
         <v>71240</v>
       </c>
@@ -3047,14 +3141,14 @@
       <c r="I23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="6" t="s">
         <v>133</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="14" customHeight="1">
       <c r="A24" s="1">
         <v>54002</v>
       </c>
@@ -3087,7 +3181,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="14" customHeight="1">
       <c r="A25" s="1">
         <v>40310</v>
       </c>
@@ -3122,12 +3216,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="14" customHeight="1">
       <c r="A27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="14" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3155,14 +3249,14 @@
       <c r="I29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="14" customHeight="1">
       <c r="A30" s="4">
         <v>40305</v>
       </c>
@@ -3187,17 +3281,17 @@
       <c r="H30" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="9" t="s">
         <v>156</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="14" customHeight="1">
       <c r="A31" s="4">
         <v>71247</v>
       </c>
@@ -3222,17 +3316,17 @@
       <c r="H31" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="9" t="s">
         <v>163</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="14" customHeight="1">
       <c r="A32" s="4">
         <v>54001</v>
       </c>
@@ -3257,17 +3351,17 @@
       <c r="H32" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="9" t="s">
         <v>168</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="14" customHeight="1">
       <c r="A33" s="4">
         <v>43845</v>
       </c>
@@ -3292,17 +3386,17 @@
       <c r="H33" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="14" customHeight="1">
       <c r="A34" s="4">
         <v>54269</v>
       </c>
@@ -3327,13 +3421,13 @@
       <c r="H34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="14" customHeight="1">
       <c r="A35" s="4">
         <v>40320</v>
       </c>
@@ -3358,15 +3452,15 @@
       <c r="H35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="15" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="9" t="s">
         <v>183</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="14" customHeight="1">
       <c r="A36" s="4">
         <v>70924</v>
       </c>
@@ -3391,93 +3485,93 @@
       <c r="H36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="19" t="s">
+      <c r="I36" s="11"/>
+      <c r="J36" s="13" t="s">
         <v>188</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="20">
+    <row r="37" spans="1:11" ht="14" customHeight="1">
+      <c r="A37" s="14">
         <v>54380</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="20" t="s">
+      <c r="G37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="20" t="s">
+      <c r="J37" s="16"/>
+      <c r="K37" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20" t="s">
+    <row r="38" spans="1:11" ht="14" customHeight="1">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20" t="s">
+      <c r="I38" s="17"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" ht="14" customHeight="1">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20" t="s">
+      <c r="I39" s="17"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" ht="14" customHeight="1">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="I40" s="17"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" ht="14" customHeight="1">
       <c r="A41" s="4">
         <v>70929</v>
       </c>
@@ -3502,13 +3596,13 @@
       <c r="H41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
       <c r="K41" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="14" customHeight="1">
       <c r="A42" s="4">
         <v>43847</v>
       </c>
@@ -3533,17 +3627,17 @@
       <c r="H42" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="J42" s="9" t="s">
         <v>204</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="14" customHeight="1">
       <c r="A43" s="4">
         <v>39620</v>
       </c>
@@ -3568,17 +3662,17 @@
       <c r="H43" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="13" t="s">
         <v>213</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="14" customHeight="1">
       <c r="A44" s="1">
         <v>40491</v>
       </c>
@@ -3600,12 +3694,12 @@
       <c r="G44" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="25"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="14" customHeight="1">
       <c r="A45" s="4">
         <v>54000</v>
       </c>
@@ -3627,18 +3721,18 @@
       <c r="G45" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="14" t="s">
+      <c r="H45" s="11"/>
+      <c r="I45" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="13" t="s">
         <v>224</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="14" customHeight="1">
       <c r="A46" s="1">
         <v>73072</v>
       </c>
@@ -3663,13 +3757,13 @@
       <c r="H46" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="26" t="s">
+      <c r="I46" s="18"/>
+      <c r="J46" s="20" t="s">
         <v>231</v>
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="14" customHeight="1">
       <c r="A47" s="4">
         <v>54376</v>
       </c>
@@ -3694,17 +3788,17 @@
       <c r="H47" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J47" s="15" t="s">
+      <c r="J47" s="9" t="s">
         <v>236</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="14" customHeight="1">
       <c r="A48" s="1">
         <v>40496</v>
       </c>
@@ -3726,12 +3820,12 @@
       <c r="G48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="19"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" ht="14" customHeight="1">
       <c r="A49" s="1">
         <v>70874</v>
       </c>
@@ -3753,45 +3847,45 @@
       <c r="G49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="19"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="20">
+    <row r="50" spans="1:11" ht="14" customHeight="1">
+      <c r="A50" s="14">
         <v>73653</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H50" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="27" t="s">
+      <c r="I50" s="17"/>
+      <c r="J50" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="K50" s="20" t="s">
+      <c r="K50" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="14" customHeight="1">
       <c r="A51" s="4">
         <v>40297</v>
       </c>
@@ -3816,2472 +3910,2472 @@
       <c r="H51" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J51" s="19" t="s">
+      <c r="J51" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" ht="14" customHeight="1">
       <c r="A54" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="28" t="s">
+    <row r="56" spans="1:11" ht="14" customHeight="1">
+      <c r="A56" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="28" t="s">
+      <c r="F56" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="28" t="s">
+      <c r="G56" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="28" t="s">
+      <c r="H56" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="28" t="s">
+      <c r="I56" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J56" s="28" t="s">
+      <c r="J56" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K56" s="28" t="s">
+      <c r="K56" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="29">
+    <row r="57" spans="1:11" ht="14" customHeight="1">
+      <c r="A57" s="23">
         <v>54004</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="F57" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="29" t="s">
+      <c r="F57" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="29" t="s">
+      <c r="H57" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="30" t="s">
+      <c r="I57" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="J57" s="30" t="s">
+      <c r="J57" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="K57" s="29" t="s">
+      <c r="K57" s="23" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="29">
+    <row r="58" spans="1:11" ht="14" customHeight="1">
+      <c r="A58" s="23">
         <v>54406</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="F58" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="29" t="s">
+      <c r="F58" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29" t="s">
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="31">
+    <row r="59" spans="1:11" ht="14" customHeight="1">
+      <c r="A59" s="25">
         <v>40336</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="H59" s="29" t="s">
+      <c r="H59" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="30" t="s">
+      <c r="I59" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="J59" s="32" t="s">
+      <c r="J59" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="K59" s="29" t="s">
+      <c r="K59" s="23" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="29">
+    <row r="60" spans="1:11" ht="14" customHeight="1">
+      <c r="A60" s="23">
         <v>54374</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H60" s="29" t="s">
+      <c r="H60" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="30" t="s">
+      <c r="I60" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="J60" s="30" t="s">
+      <c r="J60" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="K60" s="29" t="s">
+      <c r="K60" s="23" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="31">
+    <row r="61" spans="1:11" ht="14" customHeight="1">
+      <c r="A61" s="25">
         <v>39619</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E61" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F61" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H61" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="30" t="s">
+      <c r="I61" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="J61" s="30" t="s">
+      <c r="J61" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="K61" s="29" t="s">
+      <c r="K61" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="31">
+    <row r="62" spans="1:11" ht="14" customHeight="1">
+      <c r="A62" s="25">
         <v>39619</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F62" s="29" t="s">
+      <c r="F62" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="G62" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H62" s="29" t="s">
+      <c r="H62" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="30" t="s">
+      <c r="I62" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="J62" s="30" t="s">
+      <c r="J62" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="K62" s="29" t="s">
+      <c r="K62" s="23" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="31">
+    <row r="63" spans="1:11" ht="14" customHeight="1">
+      <c r="A63" s="25">
         <v>39619</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="30" t="s">
+      <c r="I63" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="J63" s="30" t="s">
+      <c r="J63" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="K63" s="29" t="s">
+      <c r="K63" s="23" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="31">
+    <row r="64" spans="1:11" ht="14" customHeight="1">
+      <c r="A64" s="25">
         <v>39619</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I64" s="30" t="s">
+      <c r="I64" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="J64" s="30" t="s">
+      <c r="J64" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="K64" s="29" t="s">
+      <c r="K64" s="23" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="31">
+    <row r="65" spans="1:11" ht="14" customHeight="1">
+      <c r="A65" s="25">
         <v>39619</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="F65" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G65" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="30" t="s">
+      <c r="I65" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="J65" s="30" t="s">
+      <c r="J65" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="K65" s="29" t="s">
+      <c r="K65" s="23" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="31">
+    <row r="66" spans="1:11" ht="14" customHeight="1">
+      <c r="A66" s="25">
         <v>39619</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="H66" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I66" s="30" t="s">
+      <c r="I66" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="J66" s="30" t="s">
+      <c r="J66" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="K66" s="29" t="s">
+      <c r="K66" s="23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="29">
+    <row r="67" spans="1:11" ht="14" customHeight="1">
+      <c r="A67" s="23">
         <v>70878</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="F67" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="29" t="s">
+      <c r="F67" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="11" t="s">
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="29">
+    <row r="68" spans="1:11" ht="14" customHeight="1">
+      <c r="A68" s="23">
         <v>54384</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="F68" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="G68" s="29" t="s">
+      <c r="G68" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H68" s="29" t="s">
+      <c r="H68" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="30" t="s">
+      <c r="I68" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="J68" s="30" t="s">
+      <c r="J68" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="K68" s="29" t="s">
+      <c r="K68" s="23" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="29">
+    <row r="69" spans="1:11" ht="14" customHeight="1">
+      <c r="A69" s="23">
         <v>70873</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="F69" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="29" t="s">
+      <c r="F69" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29" t="s">
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="29">
+    <row r="70" spans="1:11" ht="14" customHeight="1">
+      <c r="A70" s="23">
         <v>43846</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="F70" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="29" t="s">
+      <c r="F70" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="30" t="s">
+      <c r="I70" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="J70" s="29" t="s">
+      <c r="J70" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="K70" s="29" t="s">
+      <c r="K70" s="23" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="29">
+    <row r="71" spans="1:11" ht="14" customHeight="1">
+      <c r="A71" s="23">
         <v>73650</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F71" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="29" t="s">
+      <c r="F71" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="H71" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I71" s="30" t="s">
+      <c r="I71" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="J71" s="30" t="s">
+      <c r="J71" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="K71" s="29" t="s">
+      <c r="K71" s="23" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="29">
+    <row r="72" spans="1:11" ht="14" customHeight="1">
+      <c r="A72" s="23">
         <v>73650</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F72" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="29" t="s">
+      <c r="F72" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H72" s="29" t="s">
+      <c r="H72" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I72" s="30" t="s">
+      <c r="I72" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="J72" s="30" t="s">
+      <c r="J72" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="K72" s="29" t="s">
+      <c r="K72" s="23" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="29">
+    <row r="73" spans="1:11" ht="14" customHeight="1">
+      <c r="A73" s="23">
         <v>73650</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F73" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="29" t="s">
+      <c r="F73" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H73" s="29" t="s">
+      <c r="H73" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I73" s="30" t="s">
+      <c r="I73" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="J73" s="30" t="s">
+      <c r="J73" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="K73" s="29" t="s">
+      <c r="K73" s="23" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="29">
+    <row r="74" spans="1:11" ht="14" customHeight="1">
+      <c r="A74" s="23">
         <v>73650</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F74" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="29" t="s">
+      <c r="F74" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H74" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="30" t="s">
+      <c r="I74" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="J74" s="30" t="s">
+      <c r="J74" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="K74" s="29" t="s">
+      <c r="K74" s="23" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="29">
+    <row r="75" spans="1:11" ht="14" customHeight="1">
+      <c r="A75" s="23">
         <v>73650</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F75" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="29" t="s">
+      <c r="F75" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="H75" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="30" t="s">
+      <c r="I75" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="J75" s="30" t="s">
+      <c r="J75" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="K75" s="29" t="s">
+      <c r="K75" s="23" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="29">
+    <row r="76" spans="1:11" ht="14" customHeight="1">
+      <c r="A76" s="23">
         <v>73650</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E76" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F76" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="29" t="s">
+      <c r="F76" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H76" s="29" t="s">
+      <c r="H76" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="30" t="s">
+      <c r="I76" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="J76" s="30" t="s">
+      <c r="J76" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="K76" s="29" t="s">
+      <c r="K76" s="23" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="31">
+    <row r="77" spans="1:11" ht="14" customHeight="1">
+      <c r="A77" s="25">
         <v>73650</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="E77" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F77" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="29" t="s">
+      <c r="F77" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H77" s="29" t="s">
+      <c r="H77" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I77" s="30" t="s">
+      <c r="I77" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="J77" s="30" t="s">
+      <c r="J77" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="K77" s="29" t="s">
+      <c r="K77" s="23" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="31">
+    <row r="78" spans="1:11" ht="14" customHeight="1">
+      <c r="A78" s="25">
         <v>40290</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="G78" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="29" t="s">
+      <c r="G78" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I78" s="30" t="s">
+      <c r="I78" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="J78" s="29" t="s">
+      <c r="J78" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="K78" s="29" t="s">
+      <c r="K78" s="23" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="31">
+    <row r="79" spans="1:11" ht="14" customHeight="1">
+      <c r="A79" s="25">
         <v>70946</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="E79" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F79" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="29" t="s">
+      <c r="F79" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29" t="s">
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="31">
+    <row r="80" spans="1:11" ht="14" customHeight="1">
+      <c r="A80" s="25">
         <v>40281</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="F80" s="29" t="s">
+      <c r="F80" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="G80" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="29" t="s">
+      <c r="G80" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I80" s="30" t="s">
+      <c r="I80" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="J80" s="30" t="s">
+      <c r="J80" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="K80" s="29" t="s">
+      <c r="K80" s="23" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="31">
+    <row r="81" spans="1:11" ht="14" customHeight="1">
+      <c r="A81" s="25">
         <v>73074</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="F81" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="G81" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="29" t="s">
+      <c r="G81" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I81" s="30" t="s">
+      <c r="I81" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="J81" s="30" t="s">
+      <c r="J81" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="K81" s="29" t="s">
+      <c r="K81" s="23" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="31">
+    <row r="82" spans="1:11" ht="14" customHeight="1">
+      <c r="A82" s="25">
         <v>73074</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E82" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="F82" s="29" t="s">
+      <c r="F82" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="G82" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="29" t="s">
+      <c r="G82" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I82" s="30" t="s">
+      <c r="I82" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="J82" s="30" t="s">
+      <c r="J82" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="K82" s="29" t="s">
+      <c r="K82" s="23" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="31">
+    <row r="83" spans="1:11" ht="14" customHeight="1">
+      <c r="A83" s="25">
         <v>73074</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="G83" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" s="29" t="s">
+      <c r="G83" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I83" s="30" t="s">
+      <c r="I83" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="J83" s="30" t="s">
+      <c r="J83" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="K83" s="29" t="s">
+      <c r="K83" s="23" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="31">
+    <row r="84" spans="1:11" ht="14" customHeight="1">
+      <c r="A84" s="25">
         <v>70934</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F84" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" s="29" t="s">
+      <c r="F84" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29" t="s">
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="29">
+    <row r="85" spans="1:11" ht="14" customHeight="1">
+      <c r="A85" s="23">
         <v>57683</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E85" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="F85" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="29" t="s">
+      <c r="F85" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="H85" s="29" t="s">
+      <c r="H85" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I85" s="30" t="s">
+      <c r="I85" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="J85" s="30" t="s">
+      <c r="J85" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="K85" s="29" t="s">
+      <c r="K85" s="23" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="29">
+    <row r="86" spans="1:11" ht="14" customHeight="1">
+      <c r="A86" s="23">
         <v>70884</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="F86" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="29" t="s">
+      <c r="F86" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="11" t="s">
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="31">
+    <row r="87" spans="1:11" ht="14" customHeight="1">
+      <c r="A87" s="25">
         <v>40316</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="D87" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E87" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="F87" s="29" t="s">
+      <c r="F87" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G87" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" s="29" t="s">
+      <c r="G87" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I87" s="30" t="s">
+      <c r="I87" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="J87" s="29" t="s">
+      <c r="J87" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="K87" s="29" t="s">
+      <c r="K87" s="23" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="31">
+    <row r="88" spans="1:11" ht="14" customHeight="1">
+      <c r="A88" s="25">
         <v>40273</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="F88" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H88" s="29" t="s">
+      <c r="H88" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I88" s="30" t="s">
+      <c r="I88" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="J88" s="30" t="s">
+      <c r="J88" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="K88" s="29" t="s">
+      <c r="K88" s="23" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" ht="14" customHeight="1">
       <c r="A90" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="28" t="s">
+    <row r="92" spans="1:11" ht="14" customHeight="1">
+      <c r="A92" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="28" t="s">
+      <c r="D92" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="28" t="s">
+      <c r="E92" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="28" t="s">
+      <c r="F92" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="28" t="s">
+      <c r="G92" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H92" s="28" t="s">
+      <c r="H92" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I92" s="28" t="s">
+      <c r="I92" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J92" s="28" t="s">
+      <c r="J92" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K92" s="28" t="s">
+      <c r="K92" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="31">
+    <row r="93" spans="1:11" ht="14" customHeight="1">
+      <c r="A93" s="25">
         <v>54405</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D93" s="29" t="s">
+      <c r="D93" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E93" s="29" t="s">
+      <c r="E93" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="F93" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="29" t="s">
+      <c r="F93" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="H93" s="29" t="s">
+      <c r="H93" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I93" s="30" t="s">
+      <c r="I93" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="J93" s="29" t="s">
+      <c r="J93" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="K93" s="33" t="s">
+      <c r="K93" s="27" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="31">
+    <row r="94" spans="1:11" ht="14" customHeight="1">
+      <c r="A94" s="25">
         <v>71242</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D94" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="E94" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="F94" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" s="29" t="s">
+      <c r="F94" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I94" s="30" t="s">
+      <c r="I94" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="J94" s="30" t="s">
+      <c r="J94" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="K94" s="34" t="s">
+      <c r="K94" s="28" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="31">
+    <row r="95" spans="1:11" ht="14" customHeight="1">
+      <c r="A95" s="25">
         <v>40448</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="D95" s="29" t="s">
+      <c r="D95" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E95" s="29" t="s">
+      <c r="E95" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="F95" s="29" t="s">
+      <c r="F95" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="G95" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H95" s="29" t="s">
+      <c r="G95" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I95" s="29"/>
-      <c r="J95" s="30" t="s">
+      <c r="I95" s="23"/>
+      <c r="J95" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="K95" s="34" t="s">
+      <c r="K95" s="28" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="31">
+    <row r="96" spans="1:11" ht="14" customHeight="1">
+      <c r="A96" s="25">
         <v>70964</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="D96" s="29" t="s">
+      <c r="D96" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="E96" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="F96" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H96" s="29" t="s">
+      <c r="F96" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I96" s="30" t="s">
+      <c r="I96" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="J96" s="30" t="s">
+      <c r="J96" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="K96" s="34" t="s">
+      <c r="K96" s="28" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="31">
+    <row r="97" spans="1:11" ht="14" customHeight="1">
+      <c r="A97" s="25">
         <v>46350</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D97" s="29" t="s">
+      <c r="D97" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="29" t="s">
+      <c r="E97" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="F97" s="29" t="s">
+      <c r="F97" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G97" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H97" s="29" t="s">
+      <c r="H97" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I97" s="30" t="s">
+      <c r="I97" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="J97" s="30" t="s">
+      <c r="J97" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="K97" s="34" t="s">
+      <c r="K97" s="28" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="31">
+    <row r="98" spans="1:11" ht="14" customHeight="1">
+      <c r="A98" s="25">
         <v>46350</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D98" s="29" t="s">
+      <c r="D98" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="29" t="s">
+      <c r="E98" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="F98" s="29" t="s">
+      <c r="F98" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G98" s="29" t="s">
+      <c r="G98" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H98" s="29" t="s">
+      <c r="H98" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I98" s="30" t="s">
+      <c r="I98" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="J98" s="30" t="s">
+      <c r="J98" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="K98" s="34" t="s">
+      <c r="K98" s="28" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="31">
+    <row r="99" spans="1:11" ht="14" customHeight="1">
+      <c r="A99" s="25">
         <v>55129</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D99" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E99" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F99" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="29" t="s">
+      <c r="F99" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H99" s="29" t="s">
+      <c r="H99" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I99" s="30" t="s">
+      <c r="I99" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="J99" s="30" t="s">
+      <c r="J99" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="K99" s="34" t="s">
+      <c r="K99" s="28" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="31">
+    <row r="100" spans="1:11" ht="14" customHeight="1">
+      <c r="A100" s="25">
         <v>55129</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D100" s="29" t="s">
+      <c r="D100" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E100" s="29" t="s">
+      <c r="E100" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F100" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" s="29" t="s">
+      <c r="F100" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H100" s="29" t="s">
+      <c r="H100" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I100" s="30" t="s">
+      <c r="I100" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="J100" s="30" t="s">
+      <c r="J100" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="K100" s="34" t="s">
+      <c r="K100" s="28" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="31">
+    <row r="101" spans="1:11" ht="14" customHeight="1">
+      <c r="A101" s="25">
         <v>55129</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D101" s="29" t="s">
+      <c r="D101" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="E101" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F101" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" s="29" t="s">
+      <c r="F101" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H101" s="29" t="s">
+      <c r="H101" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I101" s="30" t="s">
+      <c r="I101" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="J101" s="30" t="s">
+      <c r="J101" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="K101" s="34" t="s">
+      <c r="K101" s="28" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="31">
+    <row r="102" spans="1:11" ht="14" customHeight="1">
+      <c r="A102" s="25">
         <v>55129</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D102" s="29" t="s">
+      <c r="D102" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E102" s="29" t="s">
+      <c r="E102" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F102" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" s="29" t="s">
+      <c r="F102" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H102" s="29" t="s">
+      <c r="H102" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I102" s="30" t="s">
+      <c r="I102" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="J102" s="30" t="s">
+      <c r="J102" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="K102" s="34" t="s">
+      <c r="K102" s="28" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="31">
+    <row r="103" spans="1:11" ht="14" customHeight="1">
+      <c r="A103" s="25">
         <v>55129</v>
       </c>
-      <c r="B103" s="29" t="s">
+      <c r="B103" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C103" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D103" s="29" t="s">
+      <c r="D103" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E103" s="29" t="s">
+      <c r="E103" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F103" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="29" t="s">
+      <c r="F103" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H103" s="29" t="s">
+      <c r="H103" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I103" s="30" t="s">
+      <c r="I103" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="J103" s="30" t="s">
+      <c r="J103" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="K103" s="34" t="s">
+      <c r="K103" s="28" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="31">
+    <row r="104" spans="1:11" ht="14" customHeight="1">
+      <c r="A104" s="25">
         <v>55129</v>
       </c>
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D104" s="29" t="s">
+      <c r="D104" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E104" s="29" t="s">
+      <c r="E104" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F104" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" s="29" t="s">
+      <c r="F104" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H104" s="29" t="s">
+      <c r="H104" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I104" s="30" t="s">
+      <c r="I104" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="J104" s="30" t="s">
+      <c r="J104" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="K104" s="34" t="s">
+      <c r="K104" s="28" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="31">
+    <row r="105" spans="1:11" ht="14" customHeight="1">
+      <c r="A105" s="25">
         <v>70875</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="B105" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D105" s="29" t="s">
+      <c r="D105" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E105" s="29" t="s">
+      <c r="E105" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="F105" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="29" t="s">
+      <c r="F105" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I105" s="29"/>
-      <c r="J105" s="30" t="s">
+      <c r="I105" s="23"/>
+      <c r="J105" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="K105" s="34" t="s">
+      <c r="K105" s="28" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="31">
+    <row r="106" spans="1:11" ht="14" customHeight="1">
+      <c r="A106" s="25">
         <v>40431</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D106" s="29" t="s">
+      <c r="D106" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="F106" s="29" t="s">
+      <c r="F106" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G106" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="H106" s="29" t="s">
+      <c r="H106" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="I106" s="30" t="s">
+      <c r="I106" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="J106" s="30" t="s">
+      <c r="J106" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="K106" s="34" t="s">
+      <c r="K106" s="28" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="31">
+    <row r="107" spans="1:11" ht="14" customHeight="1">
+      <c r="A107" s="25">
         <v>40431</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D107" s="29" t="s">
+      <c r="D107" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E107" s="29" t="s">
+      <c r="E107" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="F107" s="29" t="s">
+      <c r="F107" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="G107" s="29" t="s">
+      <c r="G107" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="H107" s="29" t="s">
+      <c r="H107" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="I107" s="30" t="s">
+      <c r="I107" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="J107" s="30" t="s">
+      <c r="J107" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="K107" s="34" t="s">
+      <c r="K107" s="28" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="31">
+    <row r="108" spans="1:11" ht="14" customHeight="1">
+      <c r="A108" s="25">
         <v>40431</v>
       </c>
-      <c r="B108" s="29" t="s">
+      <c r="B108" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D108" s="29" t="s">
+      <c r="D108" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E108" s="29" t="s">
+      <c r="E108" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="F108" s="29" t="s">
+      <c r="F108" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="G108" s="29" t="s">
+      <c r="G108" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="H108" s="29" t="s">
+      <c r="H108" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="I108" s="30" t="s">
+      <c r="I108" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="J108" s="30" t="s">
+      <c r="J108" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="K108" s="34" t="s">
+      <c r="K108" s="28" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="31">
+    <row r="109" spans="1:11" ht="14" customHeight="1">
+      <c r="A109" s="25">
         <v>40360</v>
       </c>
-      <c r="B109" s="29" t="s">
+      <c r="B109" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="D109" s="29" t="s">
+      <c r="D109" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E109" s="29" t="s">
+      <c r="E109" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="F109" s="29" t="s">
+      <c r="F109" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="G109" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H109" s="29" t="s">
+      <c r="G109" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I109" s="29"/>
-      <c r="J109" s="30" t="s">
+      <c r="I109" s="23"/>
+      <c r="J109" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="K109" s="34" t="s">
+      <c r="K109" s="28" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="31">
+    <row r="110" spans="1:11" ht="14" customHeight="1">
+      <c r="A110" s="25">
         <v>40411</v>
       </c>
-      <c r="B110" s="29" t="s">
+      <c r="B110" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="C110" s="29" t="s">
+      <c r="C110" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="D110" s="29" t="s">
+      <c r="D110" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E110" s="29" t="s">
+      <c r="E110" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="F110" s="29" t="s">
+      <c r="F110" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="G110" s="29" t="s">
+      <c r="G110" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H110" s="29" t="s">
+      <c r="H110" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="I110" s="30" t="s">
+      <c r="I110" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="J110" s="30" t="s">
+      <c r="J110" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="K110" s="34" t="s">
+      <c r="K110" s="28" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="31">
+    <row r="111" spans="1:11" ht="14" customHeight="1">
+      <c r="A111" s="25">
         <v>40429</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="D111" s="29" t="s">
+      <c r="D111" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E111" s="29" t="s">
+      <c r="E111" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="F111" s="29" t="s">
+      <c r="F111" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="G111" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" s="29" t="s">
+      <c r="G111" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="I111" s="30" t="s">
+      <c r="I111" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="J111" s="30" t="s">
+      <c r="J111" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="K111" s="34" t="s">
+      <c r="K111" s="28" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="31">
+    <row r="112" spans="1:11" ht="14" customHeight="1">
+      <c r="A112" s="25">
         <v>40429</v>
       </c>
-      <c r="B112" s="29" t="s">
+      <c r="B112" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="C112" s="29" t="s">
+      <c r="C112" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="D112" s="29" t="s">
+      <c r="D112" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E112" s="29" t="s">
+      <c r="E112" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="F112" s="29" t="s">
+      <c r="F112" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="G112" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="29" t="s">
+      <c r="G112" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="I112" s="30" t="s">
+      <c r="I112" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="J112" s="30" t="s">
+      <c r="J112" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="K112" s="34" t="s">
+      <c r="K112" s="28" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="31">
+    <row r="113" spans="1:11" ht="14" customHeight="1">
+      <c r="A113" s="25">
         <v>70960</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="C113" s="29" t="s">
+      <c r="C113" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="D113" s="29" t="s">
+      <c r="D113" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="29" t="s">
+      <c r="E113" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="F113" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H113" s="29" t="s">
+      <c r="F113" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I113" s="30" t="s">
+      <c r="I113" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="J113" s="30" t="s">
+      <c r="J113" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="K113" s="34" t="s">
+      <c r="K113" s="28" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="31">
+    <row r="114" spans="1:11" ht="14" customHeight="1">
+      <c r="A114" s="25">
         <v>70960</v>
       </c>
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="D114" s="29" t="s">
+      <c r="D114" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E114" s="29" t="s">
+      <c r="E114" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="F114" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" s="29" t="s">
+      <c r="F114" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I114" s="30" t="s">
+      <c r="I114" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="J114" s="30" t="s">
+      <c r="J114" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="K114" s="34" t="s">
+      <c r="K114" s="28" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="31">
+    <row r="115" spans="1:11" ht="14" customHeight="1">
+      <c r="A115" s="25">
         <v>46348</v>
       </c>
-      <c r="B115" s="29" t="s">
+      <c r="B115" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D115" s="29" t="s">
+      <c r="D115" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E115" s="29" t="s">
+      <c r="E115" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F115" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" s="29" t="s">
+      <c r="F115" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="H115" s="29" t="s">
+      <c r="H115" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I115" s="30" t="s">
+      <c r="I115" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="J115" s="30" t="s">
+      <c r="J115" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="K115" s="34" t="s">
+      <c r="K115" s="28" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="31">
+    <row r="116" spans="1:11" ht="14" customHeight="1">
+      <c r="A116" s="25">
         <v>46348</v>
       </c>
-      <c r="B116" s="29" t="s">
+      <c r="B116" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D116" s="29" t="s">
+      <c r="D116" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="29" t="s">
+      <c r="E116" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F116" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" s="29" t="s">
+      <c r="F116" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="H116" s="29" t="s">
+      <c r="H116" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I116" s="30" t="s">
+      <c r="I116" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="J116" s="30" t="s">
+      <c r="J116" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="K116" s="34" t="s">
+      <c r="K116" s="28" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="31">
+    <row r="117" spans="1:11" ht="14" customHeight="1">
+      <c r="A117" s="25">
         <v>46348</v>
       </c>
-      <c r="B117" s="29" t="s">
+      <c r="B117" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D117" s="29" t="s">
+      <c r="D117" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="29" t="s">
+      <c r="E117" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F117" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" s="29" t="s">
+      <c r="F117" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="H117" s="29" t="s">
+      <c r="H117" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I117" s="30" t="s">
+      <c r="I117" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="J117" s="30" t="s">
+      <c r="J117" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="K117" s="34" t="s">
+      <c r="K117" s="28" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="31">
+    <row r="118" spans="1:11" ht="14" customHeight="1">
+      <c r="A118" s="25">
         <v>46348</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D118" s="29" t="s">
+      <c r="D118" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="29" t="s">
+      <c r="E118" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F118" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" s="29" t="s">
+      <c r="F118" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="H118" s="29" t="s">
+      <c r="H118" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I118" s="30" t="s">
+      <c r="I118" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="J118" s="30" t="s">
+      <c r="J118" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="K118" s="34" t="s">
+      <c r="K118" s="28" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="31">
+    <row r="119" spans="1:11" ht="14" customHeight="1">
+      <c r="A119" s="25">
         <v>46348</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="B119" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D119" s="29" t="s">
+      <c r="D119" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="29" t="s">
+      <c r="E119" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F119" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" s="29" t="s">
+      <c r="F119" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="H119" s="29" t="s">
+      <c r="H119" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I119" s="30" t="s">
+      <c r="I119" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="J119" s="30" t="s">
+      <c r="J119" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="K119" s="34" t="s">
+      <c r="K119" s="28" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="31">
+    <row r="120" spans="1:11" ht="14" customHeight="1">
+      <c r="A120" s="25">
         <v>46348</v>
       </c>
-      <c r="B120" s="29" t="s">
+      <c r="B120" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D120" s="29" t="s">
+      <c r="D120" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="29" t="s">
+      <c r="E120" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F120" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" s="29" t="s">
+      <c r="F120" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="H120" s="29" t="s">
+      <c r="H120" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I120" s="30" t="s">
+      <c r="I120" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="J120" s="30" t="s">
+      <c r="J120" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="K120" s="34" t="s">
+      <c r="K120" s="28" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="31">
+    <row r="121" spans="1:11" ht="14" customHeight="1">
+      <c r="A121" s="25">
         <v>46348</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B121" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D121" s="29" t="s">
+      <c r="D121" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="29" t="s">
+      <c r="E121" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F121" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121" s="29" t="s">
+      <c r="F121" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="H121" s="29" t="s">
+      <c r="H121" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I121" s="30" t="s">
+      <c r="I121" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="J121" s="30" t="s">
+      <c r="J121" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="K121" s="34" t="s">
+      <c r="K121" s="28" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="31">
+    <row r="122" spans="1:11" ht="14" customHeight="1">
+      <c r="A122" s="25">
         <v>46348</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D122" s="29" t="s">
+      <c r="D122" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="29" t="s">
+      <c r="E122" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F122" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" s="29" t="s">
+      <c r="F122" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="H122" s="29" t="s">
+      <c r="H122" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I122" s="30" t="s">
+      <c r="I122" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="J122" s="30" t="s">
+      <c r="J122" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="K122" s="34" t="s">
+      <c r="K122" s="28" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="31">
+    <row r="123" spans="1:11" ht="14" customHeight="1">
+      <c r="A123" s="25">
         <v>46348</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B123" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D123" s="29" t="s">
+      <c r="D123" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="29" t="s">
+      <c r="E123" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F123" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" s="29" t="s">
+      <c r="F123" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="H123" s="29" t="s">
+      <c r="H123" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I123" s="30" t="s">
+      <c r="I123" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="J123" s="30" t="s">
+      <c r="J123" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="K123" s="34" t="s">
+      <c r="K123" s="28" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="31">
+    <row r="124" spans="1:11" ht="14" customHeight="1">
+      <c r="A124" s="25">
         <v>40359</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D124" s="29" t="s">
+      <c r="D124" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E124" s="29" t="s">
+      <c r="E124" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="F124" s="29" t="s">
+      <c r="F124" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G124" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="H124" s="29" t="s">
+      <c r="H124" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I124" s="30" t="s">
+      <c r="I124" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="J124" s="30" t="s">
+      <c r="J124" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K124" s="34" t="s">
+      <c r="K124" s="28" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="31">
+    <row r="125" spans="1:11" ht="14" customHeight="1">
+      <c r="A125" s="25">
         <v>40500</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="D125" s="29" t="s">
+      <c r="D125" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E125" s="29" t="s">
+      <c r="E125" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F125" s="29" t="s">
+      <c r="F125" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="G125" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="29" t="s">
+      <c r="G125" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I125" s="29"/>
-      <c r="J125" s="30" t="s">
+      <c r="I125" s="23"/>
+      <c r="J125" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="K125" s="34" t="s">
+      <c r="K125" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="31">
+    <row r="126" spans="1:11" ht="14" customHeight="1">
+      <c r="A126" s="25">
         <v>70881</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="D126" s="29" t="s">
+      <c r="D126" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E126" s="29" t="s">
+      <c r="E126" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="F126" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" s="29" t="s">
+      <c r="F126" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="I126" s="30" t="s">
+      <c r="I126" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="J126" s="30" t="s">
+      <c r="J126" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="K126" s="34" t="s">
+      <c r="K126" s="28" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="31">
+    <row r="127" spans="1:11" ht="14" customHeight="1">
+      <c r="A127" s="25">
         <v>70935</v>
       </c>
-      <c r="B127" s="29" t="s">
+      <c r="B127" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="C127" s="29" t="s">
+      <c r="C127" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="D127" s="29" t="s">
+      <c r="D127" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E127" s="29" t="s">
+      <c r="E127" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F127" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H127" s="29" t="s">
+      <c r="F127" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I127" s="29"/>
-      <c r="J127" s="30" t="s">
+      <c r="I127" s="23"/>
+      <c r="J127" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="K127" s="34" t="s">
+      <c r="K127" s="28" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="31">
+    <row r="128" spans="1:11" ht="14" customHeight="1">
+      <c r="A128" s="25">
         <v>40357</v>
       </c>
-      <c r="B128" s="29" t="s">
+      <c r="B128" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="D128" s="29" t="s">
+      <c r="D128" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E128" s="29" t="s">
+      <c r="E128" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="F128" s="29" t="s">
+      <c r="F128" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="G128" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H128" s="29" t="s">
+      <c r="G128" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="I128" s="30" t="s">
+      <c r="I128" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="J128" s="29" t="s">
+      <c r="J128" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="K128" s="34" t="s">
+      <c r="K128" s="28" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="31">
+    <row r="129" spans="1:11" ht="14" customHeight="1">
+      <c r="A129" s="25">
         <v>54812</v>
       </c>
-      <c r="B129" s="29" t="s">
+      <c r="B129" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="C129" s="29" t="s">
+      <c r="C129" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="D129" s="29" t="s">
+      <c r="D129" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E129" s="29" t="s">
+      <c r="E129" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="F129" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H129" s="29" t="s">
+      <c r="F129" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I129" s="29"/>
-      <c r="J129" s="30" t="s">
+      <c r="I129" s="23"/>
+      <c r="J129" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="K129" s="34" t="s">
+      <c r="K129" s="28" t="s">
         <v>517</v>
       </c>
     </row>
@@ -6463,6 +6557,10 @@
     <hyperlink ref="M4" r:id="rId171" xr:uid="{C970EE30-7815-9F4F-A19A-9C22847E26F0}"/>
     <hyperlink ref="M5" r:id="rId172" xr:uid="{AA89E1BB-B7E2-0D4A-A927-14D74094400E}"/>
     <hyperlink ref="M6" r:id="rId173" xr:uid="{A940B526-2BFF-2742-B05C-3C4A1DBE8E5E}"/>
+    <hyperlink ref="M10" r:id="rId174" xr:uid="{756AE29D-A641-A745-A908-0D6B3F1E3331}"/>
+    <hyperlink ref="M11" r:id="rId175" xr:uid="{74D3176C-7C2F-7A4B-9386-DBAB3D85F0AA}"/>
+    <hyperlink ref="M12" r:id="rId176" xr:uid="{AEF3BBB4-AA31-D749-8004-30DEEB45CDF5}"/>
+    <hyperlink ref="M14" r:id="rId177" xr:uid="{CD895F1C-0232-D74A-B56C-3193E193A2D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
